--- a/algo-cb/cheat_sheat.xlsx
+++ b/algo-cb/cheat_sheat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\algo-cb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90559AA6-D661-4C6D-99EE-6514AEAC8D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191C5E-2767-43D2-9E0A-B1E2C453768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DS</t>
   </si>
@@ -106,10 +106,27 @@
         self.prev = prev</t>
   </si>
   <si>
+    <t xml:space="preserve">    def add_child(self, tree):
+        tree.parent = self
+        self.child.append(tree)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only two node allowed per parent </t>
+  </si>
+  <si>
+    <t>All operation will be performed on the tree object passed.
+Firstly add parent like self.parent = self, meaning calling from the tree object
+Then add children by appending the children in the self.child list</t>
+  </si>
+  <si>
     <t>A is root word
 Post-order Traversal : D → E → B → F → G → C → A
 Pre-order Traversal: A → B → D → E → C → F → G
-In-order Traversal: D → B → E → A → F → C → G</t>
+In-order Traversal: D → B → E → A → F → C → G
+Insertion rule : After first element insertion insert element according to self.left.add_child() this condition less or greater thn given number
+Traversel rule: for traversing the element, try with  recursvie approach check both left and right element
+self.data : main root element of list
+elements += self.right.in_order_traverse() : check all right elements</t>
   </si>
 </sst>
 </file>
@@ -145,10 +162,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +456,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +464,7 @@
     <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.109375" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" customWidth="1"/>
+    <col min="4" max="4" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,10 +504,10 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -495,16 +518,25 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">

--- a/algo-cb/cheat_sheat.xlsx
+++ b/algo-cb/cheat_sheat.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\algo-cb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31191C5E-2767-43D2-9E0A-B1E2C453768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09411F80-39AA-440A-BF39-CF735AE09E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>DS</t>
   </si>
@@ -127,6 +136,13 @@
 Traversel rule: for traversing the element, try with  recursvie approach check both left and right element
 self.data : main root element of list
 elements += self.right.in_order_traverse() : check all right elements</t>
+  </si>
+  <si>
+    <t>two way insertion one at beginging and 2nd at end
+firstly self.head none
+but tail next always none
+if insertion at beginning thn normal insertion just everry new node points to self.head
+if insertion at end thn maintain header at front and move all new node</t>
   </si>
 </sst>
 </file>
@@ -162,11 +178,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -456,7 +469,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,71 +481,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -540,12 +559,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algo-cb/cheat_sheat.xlsx
+++ b/algo-cb/cheat_sheat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\algo-cb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09411F80-39AA-440A-BF39-CF735AE09E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A7B445-E339-4764-92CD-8CEFB6FF8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DS</t>
   </si>
@@ -128,29 +128,136 @@
 Then add children by appending the children in the self.child list</t>
   </si>
   <si>
-    <t>A is root word
-Post-order Traversal : D → E → B → F → G → C → A
-Pre-order Traversal: A → B → D → E → C → F → G
-In-order Traversal: D → B → E → A → F → C → G
-Insertion rule : After first element insertion insert element according to self.left.add_child() this condition less or greater thn given number
-Traversel rule: for traversing the element, try with  recursvie approach check both left and right element
-self.data : main root element of list
-elements += self.right.in_order_traverse() : check all right elements</t>
-  </si>
-  <si>
     <t>two way insertion one at beginging and 2nd at end
 firstly self.head none
 but tail next always none
 if insertion at beginning thn normal insertion just everry new node points to self.head
 if insertion at end thn maintain header at front and move all new node</t>
   </si>
+  <si>
+    <t>BFS VS DFS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BFS: Queue data structure
+DFS:  Stack data structure. 
+BFS is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level order</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and DFS is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>preorder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and cover depth like it will cover depth of all subpart thn move to next subpart.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DFS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> explore next vertex and add in previous stack in the suspended stack and pop one by one when travel back.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binary Tree an BST work on different crieria. BST allows only left node with smalller values.
+A is root word
+Post-order Traversal : left right root
+Pre-order Traversal: root left  right
+In-order Traversal: left root right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inorder and post  order both start from the smallest element in tree.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Insertion rule : After first element insertion insert element according to self.left.add_child() this condition less or greater thn given number
+Traversel rule: for traversing the element, try with  recursvie approach check both left and right element
+self.data : main root element of list
+elements += self.right.in_order_traverse() : check all right elements</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -466,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +610,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -544,7 +651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -555,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -567,6 +674,14 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/algo-cb/cheat_sheat.xlsx
+++ b/algo-cb/cheat_sheat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\learning\AI1\git-work\Python_DSA\algo-cb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A7B445-E339-4764-92CD-8CEFB6FF8BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E308B5-499A-4359-8493-CD4402CCAB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DS</t>
   </si>
@@ -242,6 +242,16 @@
 self.data : main root element of list
 elements += self.right.in_order_traverse() : check all right elements</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> routes = [ ("Mumbai", "Paris"),
+        ("Mumbai", "Dubai"),
+        ("Paris", "Dubai")   ] to dictionary {"Mumbai" : [Paris, Dubai], "Paris" : dubai]
+to find route between two points:
+based on given edge or key give values of list ans loop over them:
+if start  Mumbai
+loop over routes.get(start):
+  check recuresively and append all values in list</t>
   </si>
 </sst>
 </file>
@@ -575,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -673,7 +683,9 @@
         <v>15</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
